--- a/biology/Botanique/Panicoideae/Panicoideae.xlsx
+++ b/biology/Botanique/Panicoideae/Panicoideae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Panicoideae sont une importante sous-famille de plantes monocotylédones de la famille des Poaceae (Graminées), la deuxième en importance par le nombre d'espèces qu'elle regroupe, plus de 3500, présentes principalement dans les régions tropicales et tempérées chaudes[1]
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Panicoideae sont une importante sous-famille de plantes monocotylédones de la famille des Poaceae (Graminées), la deuxième en importance par le nombre d'espèces qu'elle regroupe, plus de 3500, présentes principalement dans les régions tropicales et tempérées chaudes
 .
 Cette sous-famille comprend quelques-unes des plus importantes plantes cultivées, dont la canne à sucre, le maïs, le sorgho commun et le panic érigé (Panicum virgatum).
-La photosynthèse en C4 a évolué indépendamment un certain nombre de fois dans cette sous-famille, qui avait probablement un ancêtre à fixation du carbone en C3[2].
+La photosynthèse en C4 a évolué indépendamment un certain nombre de fois dans cette sous-famille, qui avait probablement un ancêtre à fixation du carbone en C3.
 </t>
         </is>
       </c>
@@ -514,9 +526,11 @@
           <t>Liste des tribus et sous-tribus</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (9 juin 2013)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (9 juin 2013) :
 tribu des Andropogoneae
 tribu des Arundinelleae
 tribu des Centotheceae
